--- a/reports_pdf/brasil/risk-pt/Cases/26-06-2020_brasil_report_EPG.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/26-06-2020_brasil_report_EPG.xlsx
@@ -11432,7 +11432,7 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>176.9755160843465</v>
+        <v>176.9885697987246</v>
       </c>
     </row>
     <row r="616">
@@ -11450,7 +11450,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>182.2523960841061</v>
+        <v>182.257065551569</v>
       </c>
     </row>
     <row r="617">
@@ -17930,7 +17930,7 @@
         </is>
       </c>
       <c r="D976" t="n">
-        <v>358.1243173288968</v>
+        <v>358.0846445270324</v>
       </c>
     </row>
     <row r="977">
@@ -17948,7 +17948,7 @@
         </is>
       </c>
       <c r="D977" t="n">
-        <v>383.3394268581598</v>
+        <v>383.3241407779041</v>
       </c>
     </row>
     <row r="978">
@@ -17966,7 +17966,7 @@
         </is>
       </c>
       <c r="D978" t="n">
-        <v>431.4557823468826</v>
+        <v>431.4402445466603</v>
       </c>
     </row>
     <row r="979">
@@ -17984,7 +17984,7 @@
         </is>
       </c>
       <c r="D979" t="n">
-        <v>475.4770146417457</v>
+        <v>475.4871549991265</v>
       </c>
     </row>
     <row r="980">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D980" t="n">
-        <v>493.4709132458929</v>
+        <v>493.4810264084378</v>
       </c>
     </row>
     <row r="981">
@@ -18020,7 +18020,7 @@
         </is>
       </c>
       <c r="D981" t="n">
-        <v>509.8128898995486</v>
+        <v>509.8332253508917</v>
       </c>
     </row>
     <row r="982">
@@ -18038,7 +18038,7 @@
         </is>
       </c>
       <c r="D982" t="n">
-        <v>479.9142735398142</v>
+        <v>479.9337883779672</v>
       </c>
     </row>
     <row r="983">
@@ -18056,7 +18056,7 @@
         </is>
       </c>
       <c r="D983" t="n">
-        <v>471.9024333562786</v>
+        <v>471.9377548170452</v>
       </c>
     </row>
     <row r="984">
@@ -18074,7 +18074,7 @@
         </is>
       </c>
       <c r="D984" t="n">
-        <v>474.5910946433644</v>
+        <v>474.6107148798534</v>
       </c>
     </row>
     <row r="985">
@@ -18092,7 +18092,7 @@
         </is>
       </c>
       <c r="D985" t="n">
-        <v>450.3866512585886</v>
+        <v>450.4064827030307</v>
       </c>
     </row>
     <row r="986">
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="D1108" t="n">
-        <v>198.0039068134837</v>
+        <v>203.8398465730689</v>
       </c>
     </row>
     <row r="1109">
@@ -24734,7 +24734,7 @@
         </is>
       </c>
       <c r="D1354" t="n">
-        <v>300.1050668025528</v>
+        <v>323.3177451050731</v>
       </c>
     </row>
     <row r="1355">
@@ -26930,7 +26930,7 @@
         </is>
       </c>
       <c r="D1476" t="n">
-        <v>162.7439581971723</v>
+        <v>189.3024838684255</v>
       </c>
     </row>
     <row r="1477">
@@ -26948,7 +26948,7 @@
         </is>
       </c>
       <c r="D1477" t="n">
-        <v>159.6509420835909</v>
+        <v>167.6777390350398</v>
       </c>
     </row>
     <row r="1478">
@@ -35804,7 +35804,7 @@
         </is>
       </c>
       <c r="D1969" t="n">
-        <v>122.6297283843703</v>
+        <v>126.3481514003506</v>
       </c>
     </row>
     <row r="1970">
@@ -40232,7 +40232,7 @@
         </is>
       </c>
       <c r="D2215" t="n">
-        <v>320.7922067789769</v>
+        <v>359.169354913288</v>
       </c>
     </row>
     <row r="2216">
@@ -44624,7 +44624,7 @@
         </is>
       </c>
       <c r="D2459" t="n">
-        <v>556.9677527671952</v>
+        <v>562.0978995873712</v>
       </c>
     </row>
     <row r="2460">
@@ -44642,7 +44642,7 @@
         </is>
       </c>
       <c r="D2460" t="n">
-        <v>534.0770826683336</v>
+        <v>616.0612574179157</v>
       </c>
     </row>
     <row r="2461">
@@ -44660,7 +44660,7 @@
         </is>
       </c>
       <c r="D2461" t="n">
-        <v>436.9158449265985</v>
+        <v>455.8736130378898</v>
       </c>
     </row>
     <row r="2462">
@@ -49052,7 +49052,7 @@
         </is>
       </c>
       <c r="D2705" t="n">
-        <v>568.0391152543275</v>
+        <v>482.7892314763067</v>
       </c>
     </row>
     <row r="2706">
@@ -49070,7 +49070,7 @@
         </is>
       </c>
       <c r="D2706" t="n">
-        <v>571.0430106423074</v>
+        <v>536.6775392690395</v>
       </c>
     </row>
     <row r="2707">
@@ -49088,7 +49088,7 @@
         </is>
       </c>
       <c r="D2707" t="n">
-        <v>667.2055685571364</v>
+        <v>630.9429212793126</v>
       </c>
     </row>
     <row r="2708">
@@ -51284,7 +51284,7 @@
         </is>
       </c>
       <c r="D2829" t="n">
-        <v>3481.836541039582</v>
+        <v>4443.069855825695</v>
       </c>
     </row>
     <row r="2830">
@@ -51302,7 +51302,7 @@
         </is>
       </c>
       <c r="D2830" t="n">
-        <v>4081.193329266001</v>
+        <v>4469.589227444594</v>
       </c>
     </row>
     <row r="2831">
@@ -60140,7 +60140,7 @@
         </is>
       </c>
       <c r="D3321" t="n">
-        <v>219.4111051664339</v>
+        <v>252.5857325463557</v>
       </c>
     </row>
     <row r="3322">
@@ -60158,7 +60158,7 @@
         </is>
       </c>
       <c r="D3322" t="n">
-        <v>212.5059958676394</v>
+        <v>223.9514753909612</v>
       </c>
     </row>
     <row r="3323">
@@ -62210,7 +62210,7 @@
         </is>
       </c>
       <c r="D3436" t="n">
-        <v>184.1662122562351</v>
+        <v>184.1654176974316</v>
       </c>
     </row>
     <row r="3437">
@@ -62228,7 +62228,7 @@
         </is>
       </c>
       <c r="D3437" t="n">
-        <v>184.5323283958487</v>
+        <v>184.53203490947</v>
       </c>
     </row>
     <row r="3438">
@@ -62246,7 +62246,7 @@
         </is>
       </c>
       <c r="D3438" t="n">
-        <v>214.6470197100187</v>
+        <v>214.6467058695643</v>
       </c>
     </row>
     <row r="3439">
@@ -62264,7 +62264,7 @@
         </is>
       </c>
       <c r="D3439" t="n">
-        <v>231.4417047310091</v>
+        <v>231.4418271621734</v>
       </c>
     </row>
     <row r="3440">
@@ -62282,7 +62282,7 @@
         </is>
       </c>
       <c r="D3440" t="n">
-        <v>241.2052265960668</v>
+        <v>241.2053485865301</v>
       </c>
     </row>
     <row r="3441">
@@ -62300,7 +62300,7 @@
         </is>
       </c>
       <c r="D3441" t="n">
-        <v>247.41068895448</v>
+        <v>247.4110500544895</v>
       </c>
     </row>
     <row r="3442">
@@ -62318,7 +62318,7 @@
         </is>
       </c>
       <c r="D3442" t="n">
-        <v>254.1502842869122</v>
+        <v>254.1506524105835</v>
       </c>
     </row>
     <row r="3443">
@@ -62336,7 +62336,7 @@
         </is>
       </c>
       <c r="D3443" t="n">
-        <v>255.8756522444817</v>
+        <v>255.2874763080014</v>
       </c>
     </row>
     <row r="3444">
@@ -62354,7 +62354,7 @@
         </is>
       </c>
       <c r="D3444" t="n">
-        <v>256.831637464913</v>
+        <v>259.1194843243883</v>
       </c>
     </row>
     <row r="3445">
@@ -62372,7 +62372,7 @@
         </is>
       </c>
       <c r="D3445" t="n">
-        <v>250.522460428402</v>
+        <v>252.5917359479401</v>
       </c>
     </row>
   </sheetData>
